--- a/VT_REG1_PRI_V07_sl.xlsx
+++ b/VT_REG1_PRI_V07_sl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\DemoModels_SelfLearning\DemoS_007_SL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02F932A-EA78-4FEA-9941-364845BB0C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BD4B36-0F30-479E-9984-D452454AF5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -835,7 +835,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -949,7 +949,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -975,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1101,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
+    <comment ref="U9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +1227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
+    <comment ref="V9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1252,7 +1252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
+    <comment ref="W9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
+    <comment ref="O10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1570,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="Z3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +1783,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1836,7 +1836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
+    <comment ref="AC3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1869,7 +1869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
+    <comment ref="AA9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1962,7 +1962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000007000000}">
+    <comment ref="AB9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +1987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000008000000}">
+    <comment ref="AC9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2050,7 +2050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000009000000}">
+    <comment ref="U10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3775,7 +3775,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3889,7 +3889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+    <comment ref="U3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3915,7 +3915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3988,7 +3988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4041,7 +4041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
+    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4074,7 +4074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000006000000}">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4167,7 +4167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000007000000}">
+    <comment ref="W9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4192,7 +4192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000008000000}">
+    <comment ref="X9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4255,7 +4255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000009000000}">
+    <comment ref="P10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4510,7 +4510,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4624,7 +4624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
+    <comment ref="X3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4650,7 +4650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
+    <comment ref="Y3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4723,7 +4723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4776,7 +4776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4809,7 +4809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+    <comment ref="Y9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4902,7 +4902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
+    <comment ref="Z9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4927,7 +4927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
+    <comment ref="AA9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4990,7 +4990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
+    <comment ref="S10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -9788,7 +9788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="311">
   <si>
     <t>CommName</t>
   </si>
@@ -10716,19 +10716,24 @@
   <si>
     <t>ACTFLO</t>
   </si>
+  <si>
+    <t>2030~REG1</t>
+  </si>
+  <si>
+    <t>2030~REG2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -10947,6 +10952,11 @@
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -11406,7 +11416,7 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11868,9 +11878,6 @@
     <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="34" fillId="18" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -11878,7 +11885,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="19" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12454,13 +12479,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>701005</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -12589,13 +12614,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>3808</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>21147</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>11673</xdr:rowOff>
@@ -13045,13 +13070,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>3811972</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -13240,13 +13265,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>3854255</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -19204,9 +19229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:X46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19582,10 +19605,10 @@
       <c r="E14" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="238">
+      <c r="F14" s="237">
         <v>0</v>
       </c>
-      <c r="G14" s="238">
+      <c r="G14" s="237">
         <v>2005</v>
       </c>
       <c r="H14" s="231"/>
@@ -19700,11 +19723,11 @@
       </c>
       <c r="E17" s="226"/>
       <c r="F17" s="230"/>
-      <c r="G17" s="236">
+      <c r="G17" s="235">
         <f>G30*0.99</f>
         <v>10.295999999999999</v>
       </c>
-      <c r="H17" s="237"/>
+      <c r="H17" s="236"/>
       <c r="J17" s="202" t="str">
         <f>EnergyBalance!$B$6</f>
         <v>IMP</v>
@@ -19743,7 +19766,7 @@
         <f>-'EB1'!J$7</f>
         <v>900.38520000000005</v>
       </c>
-      <c r="H18" s="237"/>
+      <c r="H18" s="236"/>
       <c r="J18" s="202"/>
       <c r="K18" s="202"/>
       <c r="L18" s="202" t="str">
@@ -19776,11 +19799,11 @@
       </c>
       <c r="E19" s="226"/>
       <c r="F19" s="230"/>
-      <c r="G19" s="236">
+      <c r="G19" s="235">
         <f>G31*0.99</f>
         <v>11.087999999999999</v>
       </c>
-      <c r="H19" s="237"/>
+      <c r="H19" s="236"/>
       <c r="J19" s="202"/>
       <c r="K19" s="202"/>
       <c r="L19" s="202" t="str">
@@ -19818,7 +19841,7 @@
         <f>-'EB1'!L$7</f>
         <v>743.56799999999998</v>
       </c>
-      <c r="H20" s="237"/>
+      <c r="H20" s="236"/>
       <c r="J20" s="202"/>
       <c r="K20" s="202"/>
       <c r="L20" s="202" t="str">
@@ -19850,11 +19873,11 @@
       </c>
       <c r="E21" s="226"/>
       <c r="F21" s="230"/>
-      <c r="G21" s="236">
+      <c r="G21" s="235">
         <f>G32*0.99</f>
         <v>8.3160000000000007</v>
       </c>
-      <c r="H21" s="237"/>
+      <c r="H21" s="236"/>
       <c r="J21" s="202"/>
       <c r="K21" s="202"/>
       <c r="L21" s="202" t="str">
@@ -19890,7 +19913,7 @@
         <f>-'EB1'!H$7</f>
         <v>177.23310000000001</v>
       </c>
-      <c r="H22" s="237"/>
+      <c r="H22" s="236"/>
       <c r="J22" s="202"/>
       <c r="K22" s="202"/>
       <c r="L22" s="202" t="str">
@@ -19922,11 +19945,11 @@
       </c>
       <c r="E23" s="226"/>
       <c r="F23" s="230"/>
-      <c r="G23" s="236">
+      <c r="G23" s="235">
         <f>G33*0.99</f>
         <v>11.087999999999999</v>
       </c>
-      <c r="H23" s="237"/>
+      <c r="H23" s="236"/>
       <c r="J23" s="202"/>
       <c r="K23" s="202"/>
       <c r="L23" s="202" t="str">
@@ -19962,7 +19985,7 @@
         <f>-'EB1'!I$7</f>
         <v>116.7099</v>
       </c>
-      <c r="H24" s="237"/>
+      <c r="H24" s="236"/>
       <c r="J24" s="202" t="str">
         <f>EnergyBalance!B7</f>
         <v>EXP</v>
@@ -19998,11 +20021,11 @@
       </c>
       <c r="E25" s="226"/>
       <c r="F25" s="230"/>
-      <c r="G25" s="236">
+      <c r="G25" s="235">
         <f>G34*0.99</f>
         <v>8.7119999999999997</v>
       </c>
-      <c r="H25" s="237"/>
+      <c r="H25" s="236"/>
       <c r="J25" s="202"/>
       <c r="K25" s="202"/>
       <c r="L25" s="202" t="str">
@@ -20039,7 +20062,7 @@
         <f>-'EB1'!K$7</f>
         <v>240.50399999999996</v>
       </c>
-      <c r="H26" s="237"/>
+      <c r="H26" s="236"/>
       <c r="J26" s="202"/>
       <c r="K26" s="202"/>
       <c r="L26" s="202" t="str">
@@ -20071,11 +20094,11 @@
       </c>
       <c r="E27" s="226"/>
       <c r="F27" s="230"/>
-      <c r="G27" s="236">
+      <c r="G27" s="235">
         <f>G35*0.99</f>
         <v>8.3160000000000007</v>
       </c>
-      <c r="H27" s="237"/>
+      <c r="H27" s="236"/>
       <c r="J27" s="202"/>
       <c r="K27" s="202"/>
       <c r="L27" s="202" t="str">
@@ -20111,7 +20134,7 @@
         <f>-'EB1'!M$7</f>
         <v>271.82159999999999</v>
       </c>
-      <c r="H28" s="237"/>
+      <c r="H28" s="236"/>
       <c r="J28" s="202"/>
       <c r="K28" s="202"/>
       <c r="L28" s="202" t="str">
@@ -20143,11 +20166,11 @@
       </c>
       <c r="E29" s="226"/>
       <c r="F29" s="230"/>
-      <c r="G29" s="236">
+      <c r="G29" s="235">
         <f>G36*0.99</f>
         <v>8.3160000000000007</v>
       </c>
-      <c r="H29" s="237"/>
+      <c r="H29" s="236"/>
       <c r="J29" s="202"/>
       <c r="K29" s="202"/>
       <c r="L29" s="202" t="str">
@@ -20179,11 +20202,11 @@
         <v>181</v>
       </c>
       <c r="F30" s="230"/>
-      <c r="G30" s="236">
+      <c r="G30" s="235">
         <f>Pri_OIL!$G$19*1.3</f>
         <v>10.4</v>
       </c>
-      <c r="H30" s="237"/>
+      <c r="H30" s="236"/>
       <c r="J30" s="202"/>
       <c r="K30" s="202"/>
       <c r="L30" s="202" t="str">
@@ -20215,7 +20238,7 @@
         <v>184</v>
       </c>
       <c r="F31" s="230"/>
-      <c r="G31" s="236">
+      <c r="G31" s="235">
         <f>Pri_OIL!$G$19*1.4</f>
         <v>11.2</v>
       </c>
@@ -20330,9 +20353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21564,10 +21585,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="B1:V24"/>
+  <dimension ref="B1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -21579,22 +21600,25 @@
     <col min="5" max="5" width="12.59765625" style="33" customWidth="1"/>
     <col min="6" max="6" width="12.1328125" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.1328125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.86328125" customWidth="1"/>
-    <col min="15" max="15" width="7.59765625" customWidth="1"/>
-    <col min="16" max="16" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1328125" customWidth="1"/>
-    <col min="19" max="19" width="10.86328125" customWidth="1"/>
-    <col min="20" max="20" width="13.59765625" customWidth="1"/>
-    <col min="21" max="21" width="13.73046875" customWidth="1"/>
-    <col min="22" max="22" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.86328125" style="33"/>
+    <col min="8" max="9" width="15.1328125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="3.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.9296875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="7.86328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.86328125" customWidth="1"/>
+    <col min="16" max="16" width="7.59765625" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1328125" customWidth="1"/>
+    <col min="20" max="20" width="10.86328125" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" customWidth="1"/>
+    <col min="22" max="22" width="13.73046875" customWidth="1"/>
+    <col min="23" max="23" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.86328125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="29" t="s">
         <v>94</v>
       </c>
@@ -21617,11 +21641,12 @@
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="s">
         <v>75</v>
       </c>
@@ -21646,91 +21671,91 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="197" t="s">
+      <c r="O2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="198"/>
+      <c r="P2" s="197"/>
       <c r="Q2" s="198"/>
       <c r="R2" s="198"/>
       <c r="S2" s="198"/>
       <c r="T2" s="198"/>
       <c r="U2" s="198"/>
       <c r="V2" s="198"/>
-    </row>
-    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="N3" s="199" t="s">
+      <c r="W2" s="198"/>
+    </row>
+    <row r="3" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="O3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="200" t="s">
+      <c r="P3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="Q3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="199" t="s">
+      <c r="R3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="S3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="T3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="U3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="199" t="s">
+      <c r="V3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="199" t="s">
+      <c r="W3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="38"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
-      <c r="L4" s="51"/>
-      <c r="N4" s="201" t="s">
+      <c r="M4" s="51"/>
+      <c r="O4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="201" t="s">
+      <c r="P4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="201" t="s">
+      <c r="Q4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="201" t="s">
+      <c r="R4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="201" t="s">
+      <c r="S4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="201" t="s">
+      <c r="T4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="201" t="s">
+      <c r="U4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="201" t="s">
+      <c r="V4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="201" t="s">
+      <c r="W4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="37"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="N5" s="202"/>
+      <c r="M5" s="10"/>
       <c r="O5" s="202"/>
       <c r="P5" s="202"/>
       <c r="Q5" s="202"/>
@@ -21739,28 +21764,34 @@
       <c r="T5" s="202"/>
       <c r="U5" s="202"/>
       <c r="V5" s="202"/>
-    </row>
-    <row r="7" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="N7" s="2"/>
+      <c r="W5" s="202"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="M7"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="197" t="s">
+      <c r="M8"/>
+      <c r="O8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="197"/>
-      <c r="P8" s="198"/>
+      <c r="P8" s="197"/>
       <c r="Q8" s="198"/>
       <c r="R8" s="198"/>
       <c r="S8" s="198"/>
       <c r="T8" s="198"/>
       <c r="U8" s="198"/>
       <c r="V8" s="198"/>
-    </row>
-    <row r="9" spans="2:22" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W8" s="198"/>
+    </row>
+    <row r="9" spans="2:23" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="220" t="s">
         <v>236</v>
       </c>
@@ -21788,42 +21819,43 @@
       <c r="J9" s="224">
         <v>0</v>
       </c>
-      <c r="K9" s="221">
-        <v>2005</v>
-      </c>
-      <c r="L9" s="221">
-        <v>2020</v>
-      </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="199" t="s">
+      <c r="K9" s="221" t="s">
+        <v>176</v>
+      </c>
+      <c r="L9" s="221" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="200" t="s">
+      <c r="P9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="Q9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="R9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="S9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="T9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="199" t="s">
+      <c r="U9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="199" t="s">
+      <c r="V9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="199" t="s">
+      <c r="W9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="225" t="s">
         <v>42</v>
       </c>
@@ -21841,35 +21873,36 @@
       <c r="J10" s="225"/>
       <c r="K10" s="225"/>
       <c r="L10" s="225"/>
-      <c r="N10" s="201" t="s">
+      <c r="M10"/>
+      <c r="O10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="201" t="s">
+      <c r="P10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="201" t="s">
+      <c r="Q10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="201" t="s">
+      <c r="R10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="201" t="s">
+      <c r="S10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="201" t="s">
+      <c r="T10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="201" t="s">
+      <c r="U10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="201" t="s">
+      <c r="V10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="201" t="s">
+      <c r="W10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="226" t="s">
         <v>283</v>
       </c>
@@ -21896,12 +21929,13 @@
         <v>9400.4213999999993</v>
       </c>
       <c r="L11" s="234">
-        <v>11750.526750000001</v>
-      </c>
-      <c r="N11" s="201" t="s">
+        <f>SUM('EB2'!G13:M13)</f>
+        <v>21934.316600000002</v>
+      </c>
+      <c r="M11"/>
+      <c r="O11" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="201"/>
       <c r="P11" s="201"/>
       <c r="Q11" s="201"/>
       <c r="R11" s="201"/>
@@ -21909,8 +21943,9 @@
       <c r="T11" s="201"/>
       <c r="U11" s="201"/>
       <c r="V11" s="201"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W11" s="201"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B12" s="226" t="s">
         <v>283</v>
       </c>
@@ -21934,34 +21969,38 @@
         <f>-SUM('EB1'!F13)/SUM('EB1'!G13:M13)</f>
         <v>1.0128203720739584</v>
       </c>
-      <c r="L12" s="230"/>
-      <c r="N12" s="198" t="s">
+      <c r="L12" s="234">
+        <f>-SUM('EB2'!F13)/SUM('EB2'!G13:M13)</f>
+        <v>1.0128203720739584</v>
+      </c>
+      <c r="M12"/>
+      <c r="O12" s="198" t="s">
         <v>144</v>
       </c>
-      <c r="O12" s="202"/>
-      <c r="P12" s="202" t="str">
-        <f>$B$2&amp;$L$2&amp;EnergyBalance!F2&amp;"00"</f>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="202" t="str">
+        <f>$B$2&amp;$M$2&amp;EnergyBalance!F2&amp;"00"</f>
         <v>REFEOIL00</v>
       </c>
-      <c r="Q12" s="204" t="str">
-        <f>$D$2&amp;" "&amp;$L$1&amp;RIGHT(P12,2)</f>
+      <c r="R12" s="204" t="str">
+        <f>$D$2&amp;" "&amp;$M$1&amp;RIGHT(Q12,2)</f>
         <v>Refinery Existing00</v>
       </c>
-      <c r="R12" s="202" t="str">
+      <c r="S12" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S12" s="202" t="str">
+      <c r="T12" s="202" t="str">
         <f>$F$2</f>
         <v>Pja</v>
       </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198" t="s">
+      <c r="U12" s="198"/>
+      <c r="V12" s="198" t="s">
         <v>195</v>
       </c>
-      <c r="V12" s="202"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W12" s="202"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B13" s="226" t="s">
         <v>283</v>
       </c>
@@ -21987,16 +22026,18 @@
       <c r="J13" s="234">
         <v>5</v>
       </c>
-      <c r="K13" s="239">
+      <c r="K13" s="244">
         <f>'EB1'!G$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.36389900563393895</v>
       </c>
-      <c r="L13" s="234">
-        <v>0.5</v>
-      </c>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="L13" s="244">
+        <f>'EB2'!G$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>0.3638990056339389</v>
+      </c>
+      <c r="M13"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B14" s="226" t="s">
         <v>283</v>
       </c>
@@ -22020,16 +22061,18 @@
       <c r="J14" s="234">
         <v>5</v>
       </c>
-      <c r="K14" s="235">
+      <c r="K14" s="244">
         <f>'EB1'!J$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.21413371957984778</v>
       </c>
-      <c r="L14" s="234">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="L14" s="244">
+        <f>'EB2'!J$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>0.21413371957984775</v>
+      </c>
+      <c r="M14"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="226" t="s">
         <v>283</v>
       </c>
@@ -22053,16 +22096,18 @@
       <c r="J15" s="234">
         <v>5</v>
       </c>
-      <c r="K15" s="235">
+      <c r="K15" s="244">
         <f>'EB1'!L$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>0.14585103599717347</v>
       </c>
-      <c r="L15" s="234">
-        <v>0.5</v>
-      </c>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="L15" s="244">
+        <f>'EB2'!L$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>0.14585103599717344</v>
+      </c>
+      <c r="M15"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B16" s="226" t="s">
         <v>283</v>
       </c>
@@ -22086,17 +22131,19 @@
       <c r="J16" s="234">
         <v>5</v>
       </c>
-      <c r="K16" s="235">
+      <c r="K16" s="244">
         <f>'EB1'!H$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.1878800454626424E-2</v>
       </c>
-      <c r="L16" s="234">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="L16" s="244">
+        <f>'EB2'!H$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>6.1878800454626418E-2</v>
+      </c>
+      <c r="M16"/>
+      <c r="R16" s="20"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="226" t="s">
         <v>283</v>
       </c>
@@ -22120,16 +22167,18 @@
       <c r="J17" s="234">
         <v>5</v>
       </c>
-      <c r="K17" s="235">
+      <c r="K17" s="244">
         <f>'EB1'!I$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.9335444898246806E-2</v>
       </c>
-      <c r="L17" s="234">
-        <v>0.5</v>
-      </c>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="L17" s="244">
+        <f>'EB2'!I$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>6.9335444898246792E-2</v>
+      </c>
+      <c r="M17"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="226" t="s">
         <v>283</v>
       </c>
@@ -22153,15 +22202,17 @@
       <c r="J18" s="234">
         <v>5</v>
       </c>
-      <c r="K18" s="235">
+      <c r="K18" s="244">
         <f>'EB1'!K$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>6.1930500264594519E-2</v>
       </c>
-      <c r="L18" s="234">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="L18" s="244">
+        <f>'EB2'!K$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>6.1930500264594526E-2</v>
+      </c>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="226" t="s">
         <v>283</v>
       </c>
@@ -22185,24 +22236,27 @@
       <c r="J19" s="234">
         <v>5</v>
       </c>
-      <c r="K19" s="235">
+      <c r="K19" s="244">
         <f>'EB1'!M$13/SUM('EB1'!$G$13:$M$13)</f>
         <v>8.2971493171572083E-2</v>
       </c>
-      <c r="L19" s="234">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="L19" s="244">
+        <f>'EB2'!M$13/SUM('EB2'!$G$13:$M$13)</f>
+        <v>8.2971493171572056E-2</v>
+      </c>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="E20" s="53"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="M20"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="74"/>
       <c r="C23" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="148"/>
       <c r="C24" s="1" t="s">
         <v>213</v>
@@ -22217,10 +22271,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="B1:Z55"/>
+  <dimension ref="B1:AC55"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -22234,27 +22288,28 @@
     <col min="7" max="7" width="8.73046875" style="33" customWidth="1"/>
     <col min="8" max="8" width="7.1328125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.73046875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="7.86328125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="13.265625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="14.59765625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.86328125" customWidth="1"/>
-    <col min="19" max="19" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1328125" customWidth="1"/>
-    <col min="21" max="21" width="39.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.265625" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="13.73046875" customWidth="1"/>
-    <col min="26" max="26" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.86328125" style="33"/>
+    <col min="10" max="10" width="3.46484375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.59765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1328125" customWidth="1"/>
+    <col min="24" max="24" width="39.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.265625" customWidth="1"/>
+    <col min="26" max="26" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="13.73046875" customWidth="1"/>
+    <col min="29" max="29" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.86328125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:29" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="29" t="s">
         <v>94</v>
       </c>
@@ -22278,7 +22333,7 @@
       </c>
       <c r="J1" s="51"/>
     </row>
-    <row r="2" spans="2:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:29" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22305,48 +22360,48 @@
         <v>122</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="R2" s="197" t="s">
+      <c r="U2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
+      <c r="V2" s="197"/>
       <c r="W2" s="198"/>
       <c r="X2" s="198"/>
       <c r="Y2" s="198"/>
       <c r="Z2" s="198"/>
-    </row>
-    <row r="3" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="R3" s="199" t="s">
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+    </row>
+    <row r="3" spans="2:29" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="U3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="200" t="s">
+      <c r="V3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="W3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="199" t="s">
+      <c r="X3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="199" t="s">
+      <c r="Y3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="199" t="s">
+      <c r="Z3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="199" t="s">
+      <c r="AA3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="199" t="s">
+      <c r="AB3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="199" t="s">
+      <c r="AC3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:29" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="38" t="s">
         <v>157</v>
       </c>
@@ -22363,35 +22418,35 @@
         <v>178</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="R4" s="201" t="s">
+      <c r="U4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="201" t="s">
+      <c r="V4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="201" t="s">
+      <c r="W4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="201" t="s">
+      <c r="X4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="201" t="s">
+      <c r="Y4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="201" t="s">
+      <c r="Z4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="201" t="s">
+      <c r="AA4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="201" t="s">
+      <c r="AB4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="201" t="s">
+      <c r="AC4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:29" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="37" t="s">
         <v>163</v>
       </c>
@@ -22408,74 +22463,74 @@
         <v>123</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="R5" s="198" t="s">
+      <c r="U5" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="202"/>
-      <c r="T5" s="198" t="str">
+      <c r="V5" s="202"/>
+      <c r="W5" s="198" t="str">
         <f>EnergyBalance!$R$2</f>
         <v>ELC</v>
       </c>
-      <c r="U5" s="198" t="str">
+      <c r="X5" s="198" t="str">
         <f>EnergyBalance!$R$3</f>
         <v>Electricity</v>
       </c>
-      <c r="V5" s="198" t="str">
+      <c r="Y5" s="198" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198" t="s">
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198" t="s">
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="R6" s="202" t="s">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
+      <c r="U6" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="S6" s="202"/>
-      <c r="T6" s="202" t="str">
+      <c r="V6" s="202"/>
+      <c r="W6" s="202" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>ELCCO2</v>
       </c>
-      <c r="U6" s="202" t="str">
+      <c r="X6" s="202" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="V6" s="202" t="str">
+      <c r="Y6" s="202" t="str">
         <f>EnergyBalance!$X$2</f>
         <v>kt</v>
       </c>
-      <c r="W6" s="202"/>
-      <c r="X6" s="202"/>
-      <c r="Y6" s="202"/>
       <c r="Z6" s="202"/>
-    </row>
-    <row r="7" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="2:26" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="AA6" s="202"/>
+      <c r="AB6" s="202"/>
+      <c r="AC6" s="202"/>
+    </row>
+    <row r="7" spans="2:29" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="2:29" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="197" t="s">
+      <c r="U8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="197"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="V8" s="198"/>
+      <c r="V8" s="197"/>
       <c r="W8" s="198"/>
       <c r="X8" s="198"/>
       <c r="Y8" s="198"/>
       <c r="Z8" s="198"/>
-    </row>
-    <row r="9" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="198"/>
+    </row>
+    <row r="9" spans="2:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="220" t="s">
         <v>236</v>
       </c>
@@ -22506,49 +22561,58 @@
       <c r="K9" s="221">
         <v>2005</v>
       </c>
-      <c r="L9" s="221">
+      <c r="L9" s="224" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="224" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="221">
         <v>2025</v>
       </c>
-      <c r="M9" s="221">
-        <v>2030</v>
-      </c>
-      <c r="N9" s="221">
+      <c r="O9" s="224" t="s">
+        <v>309</v>
+      </c>
+      <c r="P9" s="224" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q9" s="221">
         <v>2035</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="167" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="199" t="s">
+      <c r="T9" s="45"/>
+      <c r="U9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="200" t="s">
+      <c r="V9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="199" t="s">
+      <c r="W9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="199" t="s">
+      <c r="X9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="199" t="s">
+      <c r="Y9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="W9" s="199" t="s">
+      <c r="Z9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="199" t="s">
+      <c r="AA9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="Y9" s="199" t="s">
+      <c r="AB9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="199" t="s">
+      <c r="AC9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:29" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="225" t="s">
         <v>42</v>
       </c>
@@ -22566,41 +22630,44 @@
       <c r="J10" s="225"/>
       <c r="K10" s="225"/>
       <c r="L10" s="225"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="P10" s="48" t="s">
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="S10" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="201" t="s">
+      <c r="T10" s="46"/>
+      <c r="U10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="201" t="s">
+      <c r="V10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="201" t="s">
+      <c r="W10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="201" t="s">
+      <c r="X10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="201" t="s">
+      <c r="Y10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="W10" s="201" t="s">
+      <c r="Z10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="X10" s="201" t="s">
+      <c r="AA10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="201" t="s">
+      <c r="AB10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="201" t="s">
+      <c r="AC10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:29" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="226" t="s">
         <v>300</v>
       </c>
@@ -22613,7 +22680,7 @@
         <v>ELCNUC</v>
       </c>
       <c r="F11" s="33" t="str">
-        <f>$T$5</f>
+        <f>$W$5</f>
         <v>ELC</v>
       </c>
       <c r="G11" s="226"/>
@@ -22625,26 +22692,29 @@
       <c r="K11" s="234">
         <v>0.27</v>
       </c>
-      <c r="L11" s="230"/>
-      <c r="M11" s="230"/>
+      <c r="L11" s="234"/>
+      <c r="M11" s="234"/>
       <c r="N11" s="230"/>
-      <c r="P11" s="43" t="s">
+      <c r="O11" s="230"/>
+      <c r="P11" s="230"/>
+      <c r="Q11" s="230"/>
+      <c r="S11" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="201" t="s">
+      <c r="T11" s="46"/>
+      <c r="U11" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="201"/>
-      <c r="T11" s="201"/>
-      <c r="U11" s="201"/>
       <c r="V11" s="201"/>
       <c r="W11" s="201"/>
       <c r="X11" s="201"/>
       <c r="Y11" s="201"/>
       <c r="Z11" s="201"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="201"/>
+      <c r="AC11" s="201"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="226" t="s">
         <v>300</v>
       </c>
@@ -22665,41 +22735,44 @@
       <c r="K12" s="234">
         <v>0.33</v>
       </c>
-      <c r="L12" s="230"/>
-      <c r="M12" s="230"/>
+      <c r="L12" s="234"/>
+      <c r="M12" s="234"/>
       <c r="N12" s="230"/>
-      <c r="P12" s="44" t="e">
+      <c r="O12" s="230"/>
+      <c r="P12" s="230"/>
+      <c r="Q12" s="230"/>
+      <c r="S12" s="44" t="e">
         <f>#REF!*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="202" t="s">
+      <c r="T12" s="46"/>
+      <c r="U12" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="202"/>
-      <c r="T12" s="202" t="str">
+      <c r="V12" s="202"/>
+      <c r="W12" s="202" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$13,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="U12" s="204" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(T12,2)&amp;" - "&amp;EnergyBalance!D3</f>
+      <c r="X12" s="204" t="str">
+        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(W12,2)&amp;" - "&amp;EnergyBalance!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="V12" s="202" t="str">
+      <c r="Y12" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W12" s="202" t="str">
+      <c r="Z12" s="202" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="X12" s="198" t="s">
+      <c r="AA12" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="Y12" s="202"/>
-      <c r="Z12" s="202"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="226" t="s">
         <v>300</v>
       </c>
@@ -22718,34 +22791,37 @@
       <c r="K13" s="234">
         <v>0.9</v>
       </c>
-      <c r="L13" s="230"/>
-      <c r="M13" s="230"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="234"/>
       <c r="N13" s="230"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="202"/>
-      <c r="T13" s="202" t="str">
+      <c r="O13" s="230"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="230"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$14,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="U13" s="204" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(T13,2)&amp;" - "&amp;EnergyBalance!E3</f>
+      <c r="X13" s="204" t="str">
+        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(W13,2)&amp;" - "&amp;EnergyBalance!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="V13" s="202" t="str">
+      <c r="Y13" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W13" s="202" t="str">
+      <c r="Z13" s="202" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="202"/>
-      <c r="Z13" s="202"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="226" t="s">
         <v>300</v>
       </c>
@@ -22767,34 +22843,37 @@
       <c r="L14" s="230"/>
       <c r="M14" s="230"/>
       <c r="N14" s="230"/>
-      <c r="P14" s="44" t="e">
+      <c r="O14" s="230"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="230"/>
+      <c r="S14" s="44" t="e">
         <f>#REF!*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202" t="str">
+      <c r="T14" s="47"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
+      <c r="W14" s="202" t="str">
         <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$15,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="U14" s="204" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(T14,2)&amp;" - "&amp;EnergyBalance!F3</f>
+      <c r="X14" s="204" t="str">
+        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(W14,2)&amp;" - "&amp;EnergyBalance!F3</f>
         <v>Power Plants Existing00 - Crude Oil</v>
       </c>
-      <c r="V14" s="202" t="str">
+      <c r="Y14" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W14" s="202" t="str">
+      <c r="Z14" s="202" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="202"/>
-      <c r="Z14" s="202"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="226" t="s">
         <v>300</v>
       </c>
@@ -22813,34 +22892,37 @@
       <c r="K15" s="234">
         <v>38</v>
       </c>
-      <c r="L15" s="230"/>
-      <c r="M15" s="230"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
       <c r="N15" s="230"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="202"/>
-      <c r="S15" s="202"/>
-      <c r="T15" s="202" t="str">
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
+      <c r="Q15" s="230"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="202"/>
+      <c r="V15" s="202"/>
+      <c r="W15" s="202" t="str">
         <f>$B$2&amp;$E$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$16,3)&amp;"00"</f>
         <v>ELCRERNW00</v>
       </c>
-      <c r="U15" s="202" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(T15,2)&amp;" - "&amp;EnergyBalance!O3</f>
+      <c r="X15" s="202" t="str">
+        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(W15,2)&amp;" - "&amp;EnergyBalance!O3</f>
         <v>Power Plants Existing00 - Renewable Energies</v>
       </c>
-      <c r="V15" s="202" t="str">
+      <c r="Y15" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W15" s="202" t="str">
+      <c r="Z15" s="202" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="X15" s="202"/>
-      <c r="Y15" s="202"/>
-      <c r="Z15" s="202"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16" s="226" t="s">
         <v>300</v>
       </c>
@@ -22859,39 +22941,42 @@
       <c r="K16" s="234">
         <v>1</v>
       </c>
-      <c r="L16" s="230"/>
-      <c r="M16" s="230"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
       <c r="N16" s="230"/>
-      <c r="P16" s="44" t="e">
+      <c r="O16" s="230"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="230"/>
+      <c r="S16" s="44" t="e">
         <f>#REF!*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="202"/>
-      <c r="S16" s="202"/>
-      <c r="T16" s="202" t="str">
+      <c r="T16" s="47"/>
+      <c r="U16" s="202"/>
+      <c r="V16" s="202"/>
+      <c r="W16" s="202" t="str">
         <f>$B$2&amp;$F$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$17,3)&amp;"00"</f>
         <v>ELCNENUC00</v>
       </c>
-      <c r="U16" s="202" t="str">
-        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(T16,2)&amp;" - "&amp;EnergyBalance!O3</f>
+      <c r="X16" s="202" t="str">
+        <f>$D$2&amp;" "&amp;$I$1&amp;RIGHT(W16,2)&amp;" - "&amp;EnergyBalance!O3</f>
         <v>Power Plants Existing00 - Renewable Energies</v>
       </c>
-      <c r="V16" s="202" t="str">
+      <c r="Y16" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="W16" s="202" t="str">
+      <c r="Z16" s="202" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="X16" s="198" t="s">
+      <c r="AA16" s="198" t="s">
         <v>174</v>
       </c>
-      <c r="Y16" s="202"/>
-      <c r="Z16" s="202"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B17" s="226" t="s">
         <v>300</v>
       </c>
@@ -22908,14 +22993,17 @@
       <c r="K17" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230"/>
+      <c r="L17" s="234"/>
+      <c r="M17" s="234"/>
       <c r="N17" s="230"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="47"/>
-      <c r="X17" s="1"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O17" s="230"/>
+      <c r="P17" s="230"/>
+      <c r="Q17" s="230"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="47"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B18" s="226" t="s">
         <v>300</v>
       </c>
@@ -22929,23 +23017,31 @@
       <c r="H18" s="226"/>
       <c r="I18" s="226"/>
       <c r="J18" s="230"/>
-      <c r="K18" s="232">
+      <c r="L18" s="232">
         <f>(-'EB1'!$N$11*$K$12)/($K$13*$K$17)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="230"/>
       <c r="M18" s="232">
-        <f>K18</f>
+        <f>(-'EB2'!$N$11*$K$12)/($K$13*$K$17)</f>
+        <v>125.28183557415862</v>
+      </c>
+      <c r="N18" s="230"/>
+      <c r="O18" s="232">
+        <f>L18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="230"/>
-      <c r="P18" s="44" t="e">
+      <c r="P18" s="232">
+        <f>M18</f>
+        <v>125.28183557415862</v>
+      </c>
+      <c r="Q18" s="230"/>
+      <c r="S18" s="44" t="e">
         <f>#REF!*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q18" s="47"/>
-    </row>
-    <row r="19" spans="2:24" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="T18" s="47"/>
+    </row>
+    <row r="19" spans="2:27" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="226" t="s">
         <v>303</v>
       </c>
@@ -22960,7 +23056,7 @@
         <v>ELCRNW</v>
       </c>
       <c r="F19" s="33" t="str">
-        <f>$T$5</f>
+        <f>$W$5</f>
         <v>ELC</v>
       </c>
       <c r="G19" s="226"/>
@@ -22972,17 +23068,20 @@
       <c r="K19" s="234">
         <v>1</v>
       </c>
-      <c r="L19" s="230"/>
-      <c r="M19" s="230"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
       <c r="N19" s="230"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50" t="e">
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50" t="e">
         <f>#REF!*#REF!*#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q19" s="47"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="T19" s="47"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B20" s="226" t="s">
         <v>303</v>
       </c>
@@ -23001,12 +23100,15 @@
       <c r="K20" s="234">
         <v>0.45</v>
       </c>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
       <c r="N20" s="230"/>
-      <c r="Q20" s="47"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O20" s="230"/>
+      <c r="P20" s="230"/>
+      <c r="Q20" s="230"/>
+      <c r="T20" s="47"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B21" s="226" t="s">
         <v>303</v>
       </c>
@@ -23028,8 +23130,11 @@
       <c r="L21" s="230"/>
       <c r="M21" s="230"/>
       <c r="N21" s="230"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O21" s="230"/>
+      <c r="P21" s="230"/>
+      <c r="Q21" s="230"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B22" s="226" t="s">
         <v>303</v>
       </c>
@@ -23048,11 +23153,14 @@
       <c r="K22" s="234">
         <v>70</v>
       </c>
-      <c r="L22" s="230"/>
-      <c r="M22" s="230"/>
+      <c r="L22" s="234"/>
+      <c r="M22" s="234"/>
       <c r="N22" s="230"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O22" s="230"/>
+      <c r="P22" s="230"/>
+      <c r="Q22" s="230"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B23" s="226" t="s">
         <v>303</v>
       </c>
@@ -23071,11 +23179,14 @@
       <c r="K23" s="234">
         <v>0.5</v>
       </c>
-      <c r="L23" s="230"/>
-      <c r="M23" s="230"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
       <c r="N23" s="230"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O23" s="230"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="230"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="226" t="s">
         <v>303</v>
       </c>
@@ -23092,11 +23203,14 @@
       <c r="K24" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L24" s="230"/>
-      <c r="M24" s="230"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
       <c r="N24" s="230"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O24" s="230"/>
+      <c r="P24" s="230"/>
+      <c r="Q24" s="230"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="226" t="s">
         <v>303</v>
       </c>
@@ -23110,18 +23224,26 @@
       <c r="H25" s="226"/>
       <c r="I25" s="226"/>
       <c r="J25" s="230"/>
-      <c r="K25" s="232">
+      <c r="L25" s="232">
         <f>(-'EB1'!$O$11*$K$19)/($K$20*$K$24)</f>
         <v>88.483849145949605</v>
       </c>
-      <c r="L25" s="230"/>
       <c r="M25" s="232">
-        <f>K25</f>
+        <f>(-'EB2'!$O$11*$K$19)/($K$20*$K$24)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="230"/>
+      <c r="O25" s="232">
+        <f>L25</f>
         <v>88.483849145949605</v>
       </c>
-      <c r="N25" s="230"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P25" s="232">
+        <f>M25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="230"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="226" t="s">
         <v>304</v>
       </c>
@@ -23134,7 +23256,7 @@
         <v>ELCCOA</v>
       </c>
       <c r="F26" s="33" t="str">
-        <f>$T$5</f>
+        <f>$W$5</f>
         <v>ELC</v>
       </c>
       <c r="G26" s="226"/>
@@ -23146,11 +23268,14 @@
       <c r="K26" s="234">
         <v>0.5</v>
       </c>
-      <c r="L26" s="230"/>
-      <c r="M26" s="230"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
       <c r="N26" s="230"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B27" s="226" t="s">
         <v>304</v>
       </c>
@@ -23171,15 +23296,18 @@
       <c r="K27" s="234">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L27" s="230"/>
-      <c r="M27" s="230"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
       <c r="N27" s="230"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="1" t="s">
+      <c r="O27" s="230"/>
+      <c r="P27" s="230"/>
+      <c r="Q27" s="230"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B28" s="226" t="s">
         <v>304</v>
       </c>
@@ -23191,7 +23319,7 @@
       </c>
       <c r="E28" s="226"/>
       <c r="F28" s="33" t="str">
-        <f>$T$6</f>
+        <f>$W$6</f>
         <v>ELCCO2</v>
       </c>
       <c r="G28" s="226"/>
@@ -23204,15 +23332,18 @@
         <f>99.8/K27</f>
         <v>259.89583333333331</v>
       </c>
-      <c r="L28" s="230"/>
-      <c r="M28" s="230"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
       <c r="N28" s="230"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="1" t="s">
+      <c r="O28" s="230"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="226" t="s">
         <v>304</v>
       </c>
@@ -23231,11 +23362,14 @@
       <c r="K29" s="234">
         <v>0.85</v>
       </c>
-      <c r="L29" s="230"/>
-      <c r="M29" s="230"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
       <c r="N29" s="230"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="226" t="s">
         <v>304</v>
       </c>
@@ -23257,8 +23391,11 @@
       <c r="L30" s="230"/>
       <c r="M30" s="230"/>
       <c r="N30" s="230"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O30" s="230"/>
+      <c r="P30" s="230"/>
+      <c r="Q30" s="230"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="226" t="s">
         <v>304</v>
       </c>
@@ -23277,11 +23414,14 @@
       <c r="K31" s="234">
         <v>40</v>
       </c>
-      <c r="L31" s="230"/>
-      <c r="M31" s="230"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
       <c r="N31" s="230"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="O31" s="230"/>
+      <c r="P31" s="230"/>
+      <c r="Q31" s="230"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="226" t="s">
         <v>304</v>
       </c>
@@ -23300,11 +23440,14 @@
       <c r="K32" s="234">
         <v>1</v>
       </c>
-      <c r="L32" s="230"/>
-      <c r="M32" s="230"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
       <c r="N32" s="230"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="226" t="s">
         <v>304</v>
       </c>
@@ -23321,11 +23464,14 @@
       <c r="K33" s="234">
         <v>30</v>
       </c>
-      <c r="L33" s="230"/>
-      <c r="M33" s="230"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
       <c r="N33" s="230"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O33" s="230"/>
+      <c r="P33" s="230"/>
+      <c r="Q33" s="230"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="226" t="s">
         <v>304</v>
       </c>
@@ -23342,11 +23488,14 @@
       <c r="K34" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L34" s="230"/>
-      <c r="M34" s="230"/>
+      <c r="L34" s="234"/>
+      <c r="M34" s="234"/>
       <c r="N34" s="230"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O34" s="230"/>
+      <c r="P34" s="230"/>
+      <c r="Q34" s="230"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="226" t="s">
         <v>304</v>
       </c>
@@ -23360,17 +23509,22 @@
       <c r="H35" s="226"/>
       <c r="I35" s="226"/>
       <c r="J35" s="230"/>
-      <c r="K35" s="232">
+      <c r="L35" s="232">
         <f>(-'EB1'!$D$11*$K$27)/($K$29*$K$34)</f>
         <v>137.49657086578924</v>
       </c>
-      <c r="L35" s="230"/>
-      <c r="M35" s="230"/>
-      <c r="N35" s="234">
+      <c r="M35" s="232">
+        <f>(-'EB2'!$D$11*$K$27)/($K$29*$K$34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="230"/>
+      <c r="O35" s="230"/>
+      <c r="P35" s="230"/>
+      <c r="Q35" s="234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="226" t="s">
         <v>306</v>
       </c>
@@ -23383,7 +23537,7 @@
         <v>ELCGAS</v>
       </c>
       <c r="F36" s="33" t="str">
-        <f>$T$5</f>
+        <f>$W$5</f>
         <v>ELC</v>
       </c>
       <c r="G36" s="226"/>
@@ -23395,11 +23549,14 @@
       <c r="K36" s="234">
         <v>0.4</v>
       </c>
-      <c r="L36" s="230"/>
-      <c r="M36" s="230"/>
+      <c r="L36" s="234"/>
+      <c r="M36" s="234"/>
       <c r="N36" s="230"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O36" s="230"/>
+      <c r="P36" s="230"/>
+      <c r="Q36" s="230"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="226" t="s">
         <v>306</v>
       </c>
@@ -23420,11 +23577,14 @@
       <c r="K37" s="234">
         <v>0.4929</v>
       </c>
-      <c r="L37" s="230"/>
-      <c r="M37" s="230"/>
+      <c r="L37" s="234"/>
+      <c r="M37" s="234"/>
       <c r="N37" s="230"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O37" s="230"/>
+      <c r="P37" s="230"/>
+      <c r="Q37" s="230"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="226" t="s">
         <v>306</v>
       </c>
@@ -23436,7 +23596,7 @@
       </c>
       <c r="E38" s="226"/>
       <c r="F38" s="33" t="str">
-        <f>$T$6</f>
+        <f>$W$6</f>
         <v>ELCCO2</v>
       </c>
       <c r="G38" s="226"/>
@@ -23448,11 +23608,14 @@
       <c r="K38" s="234">
         <v>113.816189896531</v>
       </c>
-      <c r="L38" s="230"/>
-      <c r="M38" s="230"/>
+      <c r="L38" s="234"/>
+      <c r="M38" s="234"/>
       <c r="N38" s="230"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O38" s="230"/>
+      <c r="P38" s="230"/>
+      <c r="Q38" s="230"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B39" s="226" t="s">
         <v>306</v>
       </c>
@@ -23471,11 +23634,14 @@
       <c r="K39" s="234">
         <v>0.85</v>
       </c>
-      <c r="L39" s="230"/>
-      <c r="M39" s="230"/>
+      <c r="L39" s="234"/>
+      <c r="M39" s="234"/>
       <c r="N39" s="230"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O39" s="230"/>
+      <c r="P39" s="230"/>
+      <c r="Q39" s="230"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B40" s="226" t="s">
         <v>306</v>
       </c>
@@ -23497,8 +23663,11 @@
       <c r="L40" s="230"/>
       <c r="M40" s="230"/>
       <c r="N40" s="230"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O40" s="230"/>
+      <c r="P40" s="230"/>
+      <c r="Q40" s="230"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B41" s="226" t="s">
         <v>306</v>
       </c>
@@ -23517,11 +23686,14 @@
       <c r="K41" s="234">
         <v>35</v>
       </c>
-      <c r="L41" s="230"/>
-      <c r="M41" s="230"/>
+      <c r="L41" s="234"/>
+      <c r="M41" s="234"/>
       <c r="N41" s="230"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O41" s="230"/>
+      <c r="P41" s="230"/>
+      <c r="Q41" s="230"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B42" s="226" t="s">
         <v>306</v>
       </c>
@@ -23540,11 +23712,14 @@
       <c r="K42" s="234">
         <v>1</v>
       </c>
-      <c r="L42" s="230"/>
-      <c r="M42" s="230"/>
+      <c r="L42" s="234"/>
+      <c r="M42" s="234"/>
       <c r="N42" s="230"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O42" s="230"/>
+      <c r="P42" s="230"/>
+      <c r="Q42" s="230"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" s="226" t="s">
         <v>306</v>
       </c>
@@ -23561,11 +23736,14 @@
       <c r="K43" s="234">
         <v>20</v>
       </c>
-      <c r="L43" s="230"/>
-      <c r="M43" s="230"/>
+      <c r="L43" s="234"/>
+      <c r="M43" s="234"/>
       <c r="N43" s="230"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O43" s="230"/>
+      <c r="P43" s="230"/>
+      <c r="Q43" s="230"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="226" t="s">
         <v>306</v>
       </c>
@@ -23582,11 +23760,14 @@
       <c r="K44" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L44" s="230"/>
-      <c r="M44" s="230"/>
+      <c r="L44" s="234"/>
+      <c r="M44" s="234"/>
       <c r="N44" s="230"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O44" s="230"/>
+      <c r="P44" s="230"/>
+      <c r="Q44" s="230"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B45" s="226" t="s">
         <v>306</v>
       </c>
@@ -23600,17 +23781,22 @@
       <c r="H45" s="226"/>
       <c r="I45" s="226"/>
       <c r="J45" s="230"/>
-      <c r="K45" s="232">
+      <c r="L45" s="232">
         <f>(-'EB1'!$E$11*$K$37)/($K$39*$K$44)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="234">
+      <c r="M45" s="232">
+        <f>(-'EB2'!$E$11*$K$37)/($K$39*$K$44)</f>
+        <v>103.62609445787447</v>
+      </c>
+      <c r="N45" s="234">
         <v>0</v>
       </c>
-      <c r="M45" s="230"/>
-      <c r="N45" s="230"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O45" s="230"/>
+      <c r="P45" s="230"/>
+      <c r="Q45" s="230"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B46" s="226" t="s">
         <v>307</v>
       </c>
@@ -23623,7 +23809,7 @@
         <v>ELCOIL</v>
       </c>
       <c r="F46" s="33" t="str">
-        <f>$T$5</f>
+        <f>$W$5</f>
         <v>ELC</v>
       </c>
       <c r="G46" s="226"/>
@@ -23635,11 +23821,14 @@
       <c r="K46" s="234">
         <v>0.2</v>
       </c>
-      <c r="L46" s="230"/>
-      <c r="M46" s="230"/>
+      <c r="L46" s="234"/>
+      <c r="M46" s="234"/>
       <c r="N46" s="230"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O46" s="230"/>
+      <c r="P46" s="230"/>
+      <c r="Q46" s="230"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B47" s="226" t="s">
         <v>307</v>
       </c>
@@ -23660,11 +23849,14 @@
       <c r="K47" s="234">
         <v>0.25</v>
       </c>
-      <c r="L47" s="230"/>
-      <c r="M47" s="230"/>
+      <c r="L47" s="234"/>
+      <c r="M47" s="234"/>
       <c r="N47" s="230"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O47" s="230"/>
+      <c r="P47" s="230"/>
+      <c r="Q47" s="230"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B48" s="226" t="s">
         <v>307</v>
       </c>
@@ -23676,7 +23868,7 @@
       </c>
       <c r="E48" s="226"/>
       <c r="F48" s="33" t="str">
-        <f>$T$6</f>
+        <f>$W$6</f>
         <v>ELCCO2</v>
       </c>
       <c r="G48" s="226"/>
@@ -23688,11 +23880,14 @@
       <c r="K48" s="234">
         <v>305.60000000000002</v>
       </c>
-      <c r="L48" s="230"/>
-      <c r="M48" s="230"/>
+      <c r="L48" s="234"/>
+      <c r="M48" s="234"/>
       <c r="N48" s="230"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O48" s="230"/>
+      <c r="P48" s="230"/>
+      <c r="Q48" s="230"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="226" t="s">
         <v>307</v>
       </c>
@@ -23711,11 +23906,14 @@
       <c r="K49" s="234">
         <v>0.85</v>
       </c>
-      <c r="L49" s="230"/>
-      <c r="M49" s="230"/>
+      <c r="L49" s="234"/>
+      <c r="M49" s="234"/>
       <c r="N49" s="230"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O49" s="230"/>
+      <c r="P49" s="230"/>
+      <c r="Q49" s="230"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="226" t="s">
         <v>307</v>
       </c>
@@ -23737,8 +23935,11 @@
       <c r="L50" s="230"/>
       <c r="M50" s="230"/>
       <c r="N50" s="230"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O50" s="230"/>
+      <c r="P50" s="230"/>
+      <c r="Q50" s="230"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="226" t="s">
         <v>307</v>
       </c>
@@ -23757,11 +23958,14 @@
       <c r="K51" s="234">
         <v>20</v>
       </c>
-      <c r="L51" s="230"/>
-      <c r="M51" s="230"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="234"/>
       <c r="N51" s="230"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O51" s="230"/>
+      <c r="P51" s="230"/>
+      <c r="Q51" s="230"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="226" t="s">
         <v>307</v>
       </c>
@@ -23780,11 +23984,14 @@
       <c r="K52" s="234">
         <v>1</v>
       </c>
-      <c r="L52" s="230"/>
-      <c r="M52" s="230"/>
+      <c r="L52" s="234"/>
+      <c r="M52" s="234"/>
       <c r="N52" s="230"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O52" s="230"/>
+      <c r="P52" s="230"/>
+      <c r="Q52" s="230"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B53" s="226" t="s">
         <v>307</v>
       </c>
@@ -23801,11 +24008,14 @@
       <c r="K53" s="234">
         <v>30</v>
       </c>
-      <c r="L53" s="230"/>
-      <c r="M53" s="230"/>
+      <c r="L53" s="234"/>
+      <c r="M53" s="234"/>
       <c r="N53" s="230"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O53" s="230"/>
+      <c r="P53" s="230"/>
+      <c r="Q53" s="230"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B54" s="226" t="s">
         <v>307</v>
       </c>
@@ -23822,11 +24032,14 @@
       <c r="K54" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L54" s="230"/>
-      <c r="M54" s="230"/>
+      <c r="L54" s="234"/>
+      <c r="M54" s="234"/>
       <c r="N54" s="230"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O54" s="230"/>
+      <c r="P54" s="230"/>
+      <c r="Q54" s="230"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B55" s="226" t="s">
         <v>307</v>
       </c>
@@ -23840,17 +24053,23 @@
       <c r="H55" s="226"/>
       <c r="I55" s="226"/>
       <c r="J55" s="230"/>
-      <c r="K55" s="232">
+      <c r="L55" s="232">
         <f>((-SUM('EB1'!G11:M11)*$K$47)/($K$49*$K$54))</f>
         <v>3.426361469245232</v>
       </c>
-      <c r="L55" s="230"/>
-      <c r="M55" s="230"/>
-      <c r="N55" s="234">
+      <c r="M55" s="232">
+        <f>((-SUM('EB2'!G11:M11)*$K$47)/($K$49*$K$54))</f>
+        <v>7.9948434282388749</v>
+      </c>
+      <c r="N55" s="230"/>
+      <c r="O55" s="230"/>
+      <c r="P55" s="230"/>
+      <c r="Q55" s="234">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -23863,7 +24082,7 @@
   <dimension ref="B1:V24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="B8:L15"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -23871,13 +24090,14 @@
     <col min="1" max="1" width="3" style="33" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="33" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.9296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.265625" style="33" customWidth="1"/>
     <col min="8" max="8" width="9.1328125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.3984375" style="33" customWidth="1"/>
-    <col min="10" max="12" width="8.1328125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="1.73046875" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.73046875" style="33" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.73046875" style="33" customWidth="1"/>
     <col min="14" max="14" width="12.73046875" style="33" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.1328125" style="33" customWidth="1"/>
@@ -24348,9 +24568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -24824,10 +25042,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="B1:V28"/>
+  <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -24842,20 +25060,22 @@
     <col min="8" max="8" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="8.1328125" customWidth="1"/>
-    <col min="11" max="12" width="13.265625" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1328125" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.73046875" customWidth="1"/>
-    <col min="19" max="19" width="11.73046875" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" customWidth="1"/>
-    <col min="21" max="21" width="13.86328125" customWidth="1"/>
-    <col min="22" max="22" width="8.3984375" customWidth="1"/>
+    <col min="11" max="11" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" customWidth="1"/>
+    <col min="16" max="16" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1328125" customWidth="1"/>
+    <col min="18" max="18" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.73046875" customWidth="1"/>
+    <col min="21" max="21" width="11.73046875" customWidth="1"/>
+    <col min="22" max="22" width="13.3984375" customWidth="1"/>
+    <col min="23" max="23" width="13.86328125" customWidth="1"/>
+    <col min="24" max="24" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>94</v>
       </c>
@@ -24876,7 +25096,7 @@
       </c>
       <c r="I1" s="52"/>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -24901,131 +25121,131 @@
         <v>122</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="N2" s="197" t="s">
+      <c r="P2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
+      <c r="Q2" s="197"/>
       <c r="R2" s="198"/>
       <c r="S2" s="198"/>
       <c r="T2" s="198"/>
       <c r="U2" s="198"/>
       <c r="V2" s="198"/>
-    </row>
-    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="N3" s="199" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+    </row>
+    <row r="3" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="P3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="200" t="s">
+      <c r="Q3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="199" t="s">
+      <c r="R3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="199" t="s">
+      <c r="S3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="T3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="U3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="V3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="199" t="s">
+      <c r="W3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="199" t="s">
+      <c r="X3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:24" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="N4" s="201" t="s">
+      <c r="P4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="201" t="s">
+      <c r="Q4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="201" t="s">
+      <c r="R4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="201" t="s">
+      <c r="S4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="201" t="s">
+      <c r="T4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="201" t="s">
+      <c r="U4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="201" t="s">
+      <c r="V4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="201" t="s">
+      <c r="W4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="201" t="s">
+      <c r="X4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="N5" s="198" t="s">
+      <c r="P5" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="202"/>
-      <c r="P5" s="198" t="str">
-        <f>LEFT($N$5,1)&amp;LEFT(B2,1)&amp;EnergyBalance!$C$44</f>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="198" t="str">
+        <f>LEFT($P$5,1)&amp;LEFT(B2,1)&amp;EnergyBalance!$C$44</f>
         <v>DROT</v>
       </c>
-      <c r="Q5" s="198" t="str">
+      <c r="S5" s="198" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp; " Sector - "&amp;EnergyBalance!$U$44</f>
         <v>Demand Residential Sector - Other</v>
       </c>
-      <c r="R5" s="198" t="str">
+      <c r="T5" s="198" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
       <c r="U5" s="198"/>
       <c r="V5" s="198"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="N6" s="202" t="s">
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P6" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202" t="str">
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>RSDCO2</v>
       </c>
-      <c r="Q6" s="202" t="str">
+      <c r="S6" s="202" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Residential Carbon dioxide</v>
       </c>
-      <c r="R6" s="202" t="str">
+      <c r="T6" s="202" t="str">
         <f>EnergyBalance!$X$2</f>
         <v>kt</v>
       </c>
-      <c r="S6" s="202"/>
-      <c r="T6" s="202"/>
       <c r="U6" s="202"/>
       <c r="V6" s="202"/>
-    </row>
-    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="W6" s="202"/>
+      <c r="X6" s="202"/>
+    </row>
+    <row r="8" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="219" t="s">
         <v>13</v>
       </c>
@@ -25035,20 +25255,22 @@
       <c r="I8" s="219"/>
       <c r="J8" s="222"/>
       <c r="K8" s="223"/>
-      <c r="L8" s="11"/>
-      <c r="N8" s="197" t="s">
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="11"/>
+      <c r="P8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="197"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
+      <c r="Q8" s="197"/>
       <c r="R8" s="202"/>
       <c r="S8" s="202"/>
       <c r="T8" s="202"/>
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
-    </row>
-    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="W8" s="202"/>
+      <c r="X8" s="202"/>
+    </row>
+    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="220" t="s">
         <v>236</v>
       </c>
@@ -25079,38 +25301,44 @@
       <c r="K9" s="221">
         <v>2005</v>
       </c>
-      <c r="L9" s="221">
+      <c r="L9" s="224" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="224" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="221">
         <v>2025</v>
       </c>
-      <c r="N9" s="199" t="s">
+      <c r="P9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="200" t="s">
+      <c r="Q9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="R9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="S9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="T9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="U9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="199" t="s">
+      <c r="V9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="199" t="s">
+      <c r="W9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="199" t="s">
+      <c r="X9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="225" t="s">
         <v>42</v>
       </c>
@@ -25128,35 +25356,37 @@
       <c r="J10" s="225"/>
       <c r="K10" s="225"/>
       <c r="L10" s="225"/>
-      <c r="N10" s="201" t="s">
+      <c r="M10" s="225"/>
+      <c r="N10" s="225"/>
+      <c r="P10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="201" t="s">
+      <c r="Q10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="201" t="s">
+      <c r="R10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="201" t="s">
+      <c r="S10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="201" t="s">
+      <c r="T10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="201" t="s">
+      <c r="U10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="201" t="s">
+      <c r="V10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="201" t="s">
+      <c r="W10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="201" t="s">
+      <c r="X10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="211" t="s">
         <v>259</v>
       </c>
@@ -25177,20 +25407,22 @@
       <c r="K11" s="215">
         <v>1</v>
       </c>
-      <c r="L11" s="211"/>
-      <c r="N11" s="201" t="s">
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="211"/>
+      <c r="P11" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
       <c r="Q11" s="201"/>
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
       <c r="T11" s="201"/>
       <c r="U11" s="201"/>
       <c r="V11" s="201"/>
-    </row>
-    <row r="12" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="W11" s="201"/>
+      <c r="X11" s="201"/>
+    </row>
+    <row r="12" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B12" s="211" t="s">
         <v>259</v>
       </c>
@@ -25213,32 +25445,34 @@
       <c r="K12" s="215">
         <v>56.1</v>
       </c>
-      <c r="L12" s="211"/>
-      <c r="N12" s="198" t="s">
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="211"/>
+      <c r="P12" s="198" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="202"/>
-      <c r="P12" s="202" t="str">
+      <c r="Q12" s="202"/>
+      <c r="R12" s="202" t="str">
         <f>LEFT(EnergyBalance!$B$16)&amp;EnergyBalance!$C$44&amp;$H$2&amp;EnergyBalance!E2</f>
         <v>ROTEGAS</v>
       </c>
-      <c r="Q12" s="202" t="str">
+      <c r="S12" s="202" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$U$44&amp;" - "&amp;EnergyBalance!$E$3</f>
         <v>Demand Technologies Residential Sector -  Existing Other - Natural Gas</v>
       </c>
-      <c r="R12" s="202" t="str">
+      <c r="T12" s="202" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="S12" s="202" t="str">
+      <c r="U12" s="202" t="str">
         <f>$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
       <c r="V12" s="202"/>
-    </row>
-    <row r="13" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+    </row>
+    <row r="13" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="211" t="s">
         <v>259</v>
       </c>
@@ -25261,10 +25495,12 @@
       <c r="K13" s="215">
         <v>0.95</v>
       </c>
-      <c r="L13" s="211"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="211"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="211" t="s">
         <v>259</v>
       </c>
@@ -25284,10 +25520,12 @@
         <f>J14*0.02</f>
         <v>0</v>
       </c>
-      <c r="L14" s="211"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="211"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="211" t="s">
         <v>259</v>
       </c>
@@ -25304,10 +25542,12 @@
       <c r="K15" s="74">
         <v>20</v>
       </c>
-      <c r="L15" s="211"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="211"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="211" t="s">
         <v>259</v>
       </c>
@@ -25321,51 +25561,63 @@
       <c r="H16" s="211"/>
       <c r="I16" s="211"/>
       <c r="J16" s="211"/>
-      <c r="K16" s="227">
+      <c r="L16" s="227">
         <f>'EB1'!$E$16/$K$13*1.01</f>
         <v>0</v>
       </c>
-      <c r="L16" s="211">
+      <c r="M16" s="227">
+        <f>'EB2'!$E$16/$K$13*1.01</f>
+        <v>5485.6746631578944</v>
+      </c>
+      <c r="N16" s="211">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I19" s="11"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="74"/>
       <c r="C23" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="148"/>
       <c r="C24" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="M28" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="O28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25376,10 +25628,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="B1:X42"/>
+  <dimension ref="B1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -25387,30 +25639,32 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" customWidth="1"/>
-    <col min="17" max="17" width="7.1328125" customWidth="1"/>
-    <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="63.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" customWidth="1"/>
+    <col min="20" max="20" width="7.1328125" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.265625" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>94</v>
       </c>
@@ -25435,7 +25689,7 @@
       <c r="I1" s="52"/>
       <c r="J1" s="52"/>
     </row>
-    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="12" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -25463,146 +25717,146 @@
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="P2" s="197" t="s">
+      <c r="S2" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
+      <c r="T2" s="197"/>
       <c r="U2" s="198"/>
       <c r="V2" s="198"/>
       <c r="W2" s="198"/>
       <c r="X2" s="198"/>
-    </row>
-    <row r="3" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="P3" s="199" t="s">
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+    </row>
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="S3" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="200" t="s">
+      <c r="T3" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="199" t="s">
+      <c r="U3" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="199" t="s">
+      <c r="V3" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="W3" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="199" t="s">
+      <c r="X3" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="199" t="s">
+      <c r="Y3" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="199" t="s">
+      <c r="Z3" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="199" t="s">
+      <c r="AA3" s="199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:27" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="P4" s="201" t="s">
+      <c r="S4" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="201" t="s">
+      <c r="T4" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="201" t="s">
+      <c r="U4" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="201" t="s">
+      <c r="V4" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="201" t="s">
+      <c r="W4" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="201" t="s">
+      <c r="X4" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="201" t="s">
+      <c r="Y4" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="201" t="s">
+      <c r="Z4" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="201" t="s">
+      <c r="AA4" s="201" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="P5" s="198" t="s">
+      <c r="S5" s="198" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="198" t="str">
-        <f>LEFT($P$5,1)&amp;LEFT($B$2,1)&amp;EnergyBalance!$C$49</f>
+      <c r="T5" s="202"/>
+      <c r="U5" s="198" t="str">
+        <f>LEFT($S$5,1)&amp;LEFT($B$2,1)&amp;EnergyBalance!$C$49</f>
         <v>DTCAR</v>
       </c>
-      <c r="S5" s="198" t="str">
+      <c r="V5" s="198" t="str">
         <f>LEFT($D$2,6)&amp;" "&amp;$C$2&amp; " Sector - "&amp;EnergyBalance!$U$49</f>
         <v>Demand Transport Sector - Cars</v>
       </c>
-      <c r="T5" s="198" t="s">
+      <c r="W5" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="U5" s="198"/>
-      <c r="V5" s="198"/>
-      <c r="W5" s="198"/>
       <c r="X5" s="198"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="P6" s="202" t="s">
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="S6" s="202" t="s">
         <v>137</v>
       </c>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="202" t="str">
+      <c r="T6" s="202"/>
+      <c r="U6" s="202" t="str">
         <f>$B$2&amp;EnergyBalance!$C$52</f>
         <v>TRACO2</v>
       </c>
-      <c r="S6" s="202" t="str">
+      <c r="V6" s="202" t="str">
         <f>$C$2&amp;" "&amp;EnergyBalance!$C$53</f>
         <v>Transport Carbon dioxide</v>
       </c>
-      <c r="T6" s="202" t="str">
+      <c r="W6" s="202" t="str">
         <f>EnergyBalance!$X$2</f>
         <v>kt</v>
       </c>
-      <c r="U6" s="202"/>
-      <c r="V6" s="202"/>
-      <c r="W6" s="202"/>
       <c r="X6" s="202"/>
-    </row>
-    <row r="8" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Y6" s="202"/>
+      <c r="Z6" s="202"/>
+      <c r="AA6" s="202"/>
+    </row>
+    <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="197" t="s">
+      <c r="S8" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="197"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
+      <c r="T8" s="197"/>
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
       <c r="W8" s="202"/>
       <c r="X8" s="202"/>
-    </row>
-    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="202"/>
+      <c r="AA8" s="202"/>
+    </row>
+    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="220" t="s">
         <v>236</v>
       </c>
@@ -25636,39 +25890,46 @@
       <c r="L9" s="221">
         <v>2015</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="167" t="s">
+      <c r="M9" s="238" t="s">
+        <v>176</v>
+      </c>
+      <c r="N9" s="238" t="s">
+        <v>177</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="Q9" s="242"/>
+      <c r="S9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="200" t="s">
+      <c r="T9" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="U9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="V9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="T9" s="199" t="s">
+      <c r="W9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="U9" s="199" t="s">
+      <c r="X9" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="199" t="s">
+      <c r="Y9" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="199" t="s">
+      <c r="Z9" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="X9" s="199" t="s">
+      <c r="AA9" s="199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="225" t="s">
         <v>42</v>
       </c>
@@ -25686,39 +25947,42 @@
       <c r="J10" s="225"/>
       <c r="K10" s="225"/>
       <c r="L10" s="225"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="175" t="s">
+      <c r="M10" s="239"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="201" t="s">
+      <c r="Q10" s="243"/>
+      <c r="S10" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="201" t="s">
+      <c r="T10" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="201" t="s">
+      <c r="U10" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="201" t="s">
+      <c r="V10" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="201" t="s">
+      <c r="W10" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="201" t="s">
+      <c r="X10" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="V10" s="201" t="s">
+      <c r="Y10" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="201" t="s">
+      <c r="Z10" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="201" t="s">
+      <c r="AA10" s="201" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="226" t="s">
         <v>277</v>
       </c>
@@ -25740,23 +26004,26 @@
         <v>0.41</v>
       </c>
       <c r="L11" s="230"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="175" t="s">
+      <c r="M11" s="230"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="P11" s="201" t="s">
+      <c r="Q11" s="243"/>
+      <c r="S11" s="201" t="s">
         <v>104</v>
       </c>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
       <c r="T11" s="201"/>
       <c r="U11" s="201"/>
       <c r="V11" s="201"/>
       <c r="W11" s="201"/>
       <c r="X11" s="201"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y11" s="201"/>
+      <c r="Z11" s="201"/>
+      <c r="AA11" s="201"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="226" t="s">
         <v>277</v>
       </c>
@@ -25769,7 +26036,7 @@
         <v>TRADSL</v>
       </c>
       <c r="F12" t="str">
-        <f>$R$5</f>
+        <f>$U$5</f>
         <v>DTCAR</v>
       </c>
       <c r="G12" s="230" t="s">
@@ -25782,36 +26049,42 @@
         <v>16.5</v>
       </c>
       <c r="L12" s="230"/>
-      <c r="N12" s="63">
-        <f>K18*K12*K17*K16</f>
+      <c r="M12" s="230"/>
+      <c r="N12" s="230"/>
+      <c r="P12" s="63">
+        <f>M18*$K12*$K17*$K16</f>
         <v>1197.6658691624998</v>
       </c>
-      <c r="P12" s="198" t="s">
+      <c r="Q12" s="63">
+        <f>N18*$K12*$K17*$K16</f>
+        <v>2794.5536947124992</v>
+      </c>
+      <c r="S12" s="198" t="s">
         <v>120</v>
       </c>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="202" t="str">
+      <c r="T12" s="202"/>
+      <c r="U12" s="202" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$49&amp;$H$2&amp;EnergyBalance!$G$2</f>
         <v>TCAREDSL</v>
       </c>
-      <c r="S12" s="204" t="str">
+      <c r="V12" s="204" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$U$49&amp;" - "&amp;EnergyBalance!$G$3</f>
         <v>Demand Technologies Transport Sector -  Existing Cars - Diesel oil</v>
       </c>
-      <c r="T12" s="198" t="s">
+      <c r="W12" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="U12" s="198" t="str">
+      <c r="X12" s="198" t="str">
         <f>$G$2</f>
         <v>000_Units</v>
       </c>
-      <c r="V12" s="202"/>
-      <c r="W12" s="198" t="s">
+      <c r="Y12" s="202"/>
+      <c r="Z12" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="X12" s="202"/>
-    </row>
-    <row r="13" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AA12" s="202"/>
+    </row>
+    <row r="13" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B13" s="226" t="s">
         <v>277</v>
       </c>
@@ -25831,34 +26104,40 @@
       </c>
       <c r="K13" s="230"/>
       <c r="L13" s="230"/>
-      <c r="N13" s="64">
-        <f>K42*K36*K41*K40</f>
+      <c r="M13" s="230"/>
+      <c r="N13" s="230"/>
+      <c r="P13" s="64">
+        <f>M42*$K36*$K41*$K40</f>
         <v>27.124393349999998</v>
       </c>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="202" t="str">
+      <c r="Q13" s="64">
+        <f>N42*$K36*$K41*$K40</f>
+        <v>63.290251149999996</v>
+      </c>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$49&amp;$H$2&amp;EnergyBalance!$I$2</f>
         <v>TCARELPG</v>
       </c>
-      <c r="S13" s="204" t="str">
+      <c r="V13" s="204" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$U$49&amp;" - "&amp;EnergyBalance!$I$3</f>
         <v>Demand Technologies Transport Sector -  Existing Cars - LPG</v>
       </c>
-      <c r="T13" s="198" t="s">
+      <c r="W13" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="U13" s="198" t="str">
+      <c r="X13" s="198" t="str">
         <f>$G$2</f>
         <v>000_Units</v>
       </c>
-      <c r="V13" s="202"/>
-      <c r="W13" s="198" t="s">
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="X13" s="202"/>
-    </row>
-    <row r="14" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AA13" s="202"/>
+    </row>
+    <row r="14" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="226" t="s">
         <v>277</v>
       </c>
@@ -25878,34 +26157,40 @@
         <v>0.16</v>
       </c>
       <c r="L14" s="230"/>
-      <c r="N14" s="64">
-        <f>K34*K28*K33*K32</f>
+      <c r="M14" s="230"/>
+      <c r="N14" s="230"/>
+      <c r="P14" s="64">
+        <f>M34*$K28*$K33*$K32</f>
         <v>725.44744800000001</v>
       </c>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="202" t="str">
+      <c r="Q14" s="64">
+        <f>N34*$K28*$K33*$K32</f>
+        <v>1692.7107120000003</v>
+      </c>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$49&amp;$H$2&amp;EnergyBalance!$J$2</f>
         <v>TCAREGSL</v>
       </c>
-      <c r="S14" s="202" t="str">
+      <c r="V14" s="202" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$U$49&amp;" - "&amp;EnergyBalance!$J$3</f>
         <v>Demand Technologies Transport Sector -  Existing Cars - Motor spirit</v>
       </c>
-      <c r="T14" s="198" t="s">
+      <c r="W14" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="U14" s="198" t="str">
+      <c r="X14" s="198" t="str">
         <f>$G$2</f>
         <v>000_Units</v>
       </c>
-      <c r="V14" s="202"/>
-      <c r="W14" s="198" t="s">
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="X14" s="202"/>
-    </row>
-    <row r="15" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AA14" s="202"/>
+    </row>
+    <row r="15" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="226" t="s">
         <v>277</v>
       </c>
@@ -25923,34 +26208,40 @@
         <v>10</v>
       </c>
       <c r="L15" s="230"/>
-      <c r="N15" s="64">
-        <f>K26*K20*K25*K24</f>
+      <c r="M15" s="230"/>
+      <c r="N15" s="230"/>
+      <c r="P15" s="64">
+        <f>M26*$K20*$K25*$K24</f>
         <v>0</v>
       </c>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="202" t="str">
+      <c r="Q15" s="64">
+        <f>N26*$K20*$K25*$K24</f>
+        <v>10.19420775</v>
+      </c>
+      <c r="S15" s="202"/>
+      <c r="T15" s="202"/>
+      <c r="U15" s="202" t="str">
         <f>LEFT($B$2)&amp;EnergyBalance!$C$49&amp;$H$2&amp;EnergyBalance!$E$2</f>
         <v>TCAREGAS</v>
       </c>
-      <c r="S15" s="202" t="str">
+      <c r="V15" s="202" t="str">
         <f>$D$2&amp;" "&amp;$C$2&amp; " Sector - "&amp;" "&amp;$H$1&amp;" "&amp;EnergyBalance!$U$49&amp;" - "&amp;EnergyBalance!$E$3</f>
         <v>Demand Technologies Transport Sector -  Existing Cars - Natural Gas</v>
       </c>
-      <c r="T15" s="198" t="s">
+      <c r="W15" s="198" t="s">
         <v>225</v>
       </c>
-      <c r="U15" s="198" t="str">
+      <c r="X15" s="198" t="str">
         <f>$G$2</f>
         <v>000_Units</v>
       </c>
-      <c r="V15" s="202"/>
-      <c r="W15" s="198" t="s">
+      <c r="Y15" s="202"/>
+      <c r="Z15" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="X15" s="202"/>
-    </row>
-    <row r="16" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="AA15" s="202"/>
+    </row>
+    <row r="16" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="226" t="s">
         <v>277</v>
       </c>
@@ -25970,9 +26261,12 @@
         <v>1.25</v>
       </c>
       <c r="L16" s="230"/>
-      <c r="N16" s="62"/>
-    </row>
-    <row r="17" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+    </row>
+    <row r="17" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B17" s="226" t="s">
         <v>277</v>
       </c>
@@ -25990,8 +26284,10 @@
         <v>1E-3</v>
       </c>
       <c r="L17" s="230"/>
-    </row>
-    <row r="18" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M17" s="230"/>
+      <c r="N17" s="230"/>
+    </row>
+    <row r="18" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B18" s="226" t="s">
         <v>277</v>
       </c>
@@ -26005,16 +26301,21 @@
       <c r="H18" s="230"/>
       <c r="I18" s="226"/>
       <c r="J18" s="230"/>
-      <c r="K18" s="232">
+      <c r="L18" s="234">
+        <v>0</v>
+      </c>
+      <c r="M18" s="240">
         <f>('EB1'!G$20*K11/(K17*K12))*1.01</f>
         <v>58068.648201818178</v>
       </c>
-      <c r="L18" s="234">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N18" s="240">
+        <f>('EB2'!G$20*K11/(K17*K12))*1.01</f>
+        <v>135493.51247090905</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="226" t="s">
         <v>280</v>
       </c>
@@ -26036,12 +26337,14 @@
         <v>0.38</v>
       </c>
       <c r="L19" s="230"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="1" t="s">
+      <c r="M19" s="241"/>
+      <c r="N19" s="241"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B20" s="226" t="s">
         <v>280</v>
       </c>
@@ -26054,7 +26357,7 @@
         <v>TRAGAS</v>
       </c>
       <c r="F20" t="str">
-        <f>$R$5</f>
+        <f>$U$5</f>
         <v>DTCAR</v>
       </c>
       <c r="G20" s="230" t="s">
@@ -26067,12 +26370,14 @@
         <v>14</v>
       </c>
       <c r="L20" s="230"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="1" t="s">
+      <c r="M20" s="241"/>
+      <c r="N20" s="241"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B21" s="226" t="s">
         <v>280</v>
       </c>
@@ -26092,8 +26397,10 @@
       </c>
       <c r="K21" s="230"/>
       <c r="L21" s="230"/>
-    </row>
-    <row r="22" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M21" s="241"/>
+      <c r="N21" s="241"/>
+    </row>
+    <row r="22" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B22" s="226" t="s">
         <v>280</v>
       </c>
@@ -26113,8 +26420,10 @@
         <v>0.16</v>
       </c>
       <c r="L22" s="230"/>
-    </row>
-    <row r="23" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+    </row>
+    <row r="23" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B23" s="226" t="s">
         <v>280</v>
       </c>
@@ -26132,10 +26441,13 @@
         <v>10</v>
       </c>
       <c r="L23" s="230"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M23" s="241"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="226" t="s">
         <v>280</v>
       </c>
@@ -26155,11 +26467,14 @@
         <v>1.25</v>
       </c>
       <c r="L24" s="230"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B25" s="226" t="s">
         <v>280</v>
       </c>
@@ -26177,11 +26492,14 @@
         <v>1E-3</v>
       </c>
       <c r="L25" s="230"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="241"/>
+      <c r="N25" s="241"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B26" s="226" t="s">
         <v>280</v>
       </c>
@@ -26195,18 +26513,23 @@
       <c r="H26" s="230"/>
       <c r="I26" s="226"/>
       <c r="J26" s="230"/>
-      <c r="K26" s="232">
+      <c r="L26" s="234">
+        <v>0</v>
+      </c>
+      <c r="M26" s="240">
         <f>('EB1'!E$20*K19/(K25*K20))*1.01</f>
         <v>0</v>
       </c>
-      <c r="L26" s="234">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="240">
+        <f>('EB2'!E$20*K19/(K25*K20))*1.01</f>
+        <v>582.52615714285707</v>
+      </c>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B27" s="226" t="s">
         <v>281</v>
       </c>
@@ -26228,9 +26551,11 @@
         <v>0.4</v>
       </c>
       <c r="L27" s="230"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="M27" s="241"/>
+      <c r="N27" s="241"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B28" s="226" t="s">
         <v>281</v>
       </c>
@@ -26243,7 +26568,7 @@
         <v>TRAGSL</v>
       </c>
       <c r="F28" t="str">
-        <f>$R$5</f>
+        <f>$U$5</f>
         <v>DTCAR</v>
       </c>
       <c r="G28" s="230" t="s">
@@ -26256,8 +26581,10 @@
         <v>11.5</v>
       </c>
       <c r="L28" s="230"/>
-    </row>
-    <row r="29" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M28" s="241"/>
+      <c r="N28" s="241"/>
+    </row>
+    <row r="29" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B29" s="226" t="s">
         <v>281</v>
       </c>
@@ -26277,8 +26604,10 @@
       </c>
       <c r="K29" s="230"/>
       <c r="L29" s="230"/>
-    </row>
-    <row r="30" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M29" s="241"/>
+      <c r="N29" s="241"/>
+    </row>
+    <row r="30" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B30" s="226" t="s">
         <v>281</v>
       </c>
@@ -26298,8 +26627,10 @@
         <v>0.15</v>
       </c>
       <c r="L30" s="230"/>
-    </row>
-    <row r="31" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M30" s="241"/>
+      <c r="N30" s="241"/>
+    </row>
+    <row r="31" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B31" s="226" t="s">
         <v>281</v>
       </c>
@@ -26317,8 +26648,10 @@
         <v>10</v>
       </c>
       <c r="L31" s="230"/>
-    </row>
-    <row r="32" spans="2:21" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M31" s="241"/>
+      <c r="N31" s="241"/>
+    </row>
+    <row r="32" spans="2:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B32" s="226" t="s">
         <v>281</v>
       </c>
@@ -26338,8 +26671,10 @@
         <v>1.25</v>
       </c>
       <c r="L32" s="230"/>
-    </row>
-    <row r="33" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M32" s="241"/>
+      <c r="N32" s="241"/>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B33" s="226" t="s">
         <v>281</v>
       </c>
@@ -26357,8 +26692,10 @@
         <v>1E-3</v>
       </c>
       <c r="L33" s="230"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M33" s="241"/>
+      <c r="N33" s="241"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="226" t="s">
         <v>281</v>
       </c>
@@ -26370,15 +26707,19 @@
       <c r="H34" s="230"/>
       <c r="I34" s="226"/>
       <c r="J34" s="230"/>
-      <c r="K34" s="232">
+      <c r="L34" s="234">
+        <v>0</v>
+      </c>
+      <c r="M34" s="240">
         <f>('EB1'!J$20*K27/(K33*K28))*1.01</f>
         <v>50465.909426086953</v>
       </c>
-      <c r="L34" s="234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="N34" s="240">
+        <f>('EB2'!J$20*K27/(K33*K28))*1.01</f>
+        <v>117753.78866086957</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B35" s="226" t="s">
         <v>282</v>
       </c>
@@ -26400,8 +26741,10 @@
         <v>0.38</v>
       </c>
       <c r="L35" s="230"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M35" s="241"/>
+      <c r="N35" s="241"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="226" t="s">
         <v>282</v>
       </c>
@@ -26414,7 +26757,7 @@
         <v>TRALPG</v>
       </c>
       <c r="F36" t="str">
-        <f>$R$5</f>
+        <f>$U$5</f>
         <v>DTCAR</v>
       </c>
       <c r="G36" s="230" t="s">
@@ -26427,8 +26770,10 @@
         <v>14</v>
       </c>
       <c r="L36" s="230"/>
-    </row>
-    <row r="37" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M36" s="241"/>
+      <c r="N36" s="241"/>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B37" s="226" t="s">
         <v>282</v>
       </c>
@@ -26448,8 +26793,10 @@
       </c>
       <c r="K37" s="230"/>
       <c r="L37" s="230"/>
-    </row>
-    <row r="38" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M37" s="241"/>
+      <c r="N37" s="241"/>
+    </row>
+    <row r="38" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B38" s="226" t="s">
         <v>282</v>
       </c>
@@ -26469,8 +26816,10 @@
         <v>0.16</v>
       </c>
       <c r="L38" s="230"/>
-    </row>
-    <row r="39" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M38" s="241"/>
+      <c r="N38" s="241"/>
+    </row>
+    <row r="39" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B39" s="226" t="s">
         <v>282</v>
       </c>
@@ -26488,8 +26837,10 @@
         <v>10</v>
       </c>
       <c r="L39" s="230"/>
-    </row>
-    <row r="40" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M39" s="241"/>
+      <c r="N39" s="241"/>
+    </row>
+    <row r="40" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B40" s="226" t="s">
         <v>282</v>
       </c>
@@ -26509,8 +26860,10 @@
         <v>1.25</v>
       </c>
       <c r="L40" s="230"/>
-    </row>
-    <row r="41" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+    </row>
+    <row r="41" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B41" s="226" t="s">
         <v>282</v>
       </c>
@@ -26528,8 +26881,10 @@
         <v>1E-3</v>
       </c>
       <c r="L41" s="230"/>
-    </row>
-    <row r="42" spans="2:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="M41" s="241"/>
+      <c r="N41" s="241"/>
+    </row>
+    <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B42" s="226" t="s">
         <v>282</v>
       </c>
@@ -26543,12 +26898,16 @@
       <c r="H42" s="230"/>
       <c r="I42" s="226"/>
       <c r="J42" s="230"/>
-      <c r="K42" s="232">
+      <c r="L42" s="234">
+        <v>0</v>
+      </c>
+      <c r="M42" s="240">
         <f>('EB1'!I$20*K35/(K41*K36))*1.01</f>
         <v>1549.9653342857143</v>
       </c>
-      <c r="L42" s="234">
-        <v>0</v>
+      <c r="N42" s="240">
+        <f>('EB2'!I$20*K35/(K41*K36))*1.01</f>
+        <v>3616.5857799999999</v>
       </c>
     </row>
   </sheetData>
@@ -26563,7 +26922,7 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -26752,7 +27111,7 @@
         <v>35</v>
       </c>
       <c r="C10" t="str">
-        <f>DemTechs_RSD!$P$5</f>
+        <f>DemTechs_RSD!$R$5</f>
         <v>DROT</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -26786,14 +27145,14 @@
         <v>35</v>
       </c>
       <c r="C11" t="str">
-        <f>DemTechs_TRA!$R$5</f>
+        <f>DemTechs_TRA!$U$5</f>
         <v>DTCAR</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="147">
-        <f>SUM(DemTechs_TRA!N12:N15)</f>
+        <f>SUM(DemTechs_TRA!P12:P15)</f>
         <v>1950.2377105124997</v>
       </c>
       <c r="F11" s="147"/>
@@ -26984,7 +27343,7 @@
     </row>
     <row r="8" spans="2:9" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B8" s="60" t="str">
-        <f>DemTechs_TRA!R6</f>
+        <f>DemTechs_TRA!U6</f>
         <v>TRACO2</v>
       </c>
       <c r="C8" s="153">
@@ -31208,7 +31567,7 @@
   <dimension ref="B1:R26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -31808,7 +32167,7 @@
   <dimension ref="B1:R28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -32437,9 +32796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -33031,9 +33388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:Q24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F65536"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
